--- a/data/trans_camb/P16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,16</t>
         </is>
       </c>
     </row>
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,26%</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 74,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 66,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 48,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,51</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 297,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 190,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 94,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 86,91</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 7,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 6,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 3,37</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 7,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 6,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 3,51</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 8,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 6,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 4,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 3,93</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 8,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 6,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 4,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 4,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,31</t>
+          <t>0,0; 9,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,0</t>
+          <t>-10,15; 3,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,57</t>
+          <t>0,0; 4,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,37</t>
+          <t>-3,7; 1,93</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,89</t>
+          <t>0,0; 10,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,42</t>
+          <t>-10,36; 3,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,79</t>
+          <t>0,0; 4,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,51</t>
+          <t>-4,0; 1,96</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,42</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,05</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,43</t>
+          <t>0,0; 8,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,05</t>
+          <t>0,0; 11,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,25</t>
+          <t>0,0; 11,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,45</t>
+          <t>0,67; 7,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,93</t>
+          <t>0,67; 7,24</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>0,0; 9,1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,95</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,85</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,36</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 8,54</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 4,05</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 4,43</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 8,05</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 6,25</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 4,45</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,45; 4,23</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>0,45; 4,63</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>1,19; 8,76</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-0,49; 6,73</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>1,15; 4,66</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>0,25; 4,1</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Edad-trans_camb.xlsx
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,85</t>
+          <t>0,0; 79,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,32</t>
+          <t>0,0; 79,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,59</t>
+          <t>0,0; 50,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,51</t>
+          <t>0,0; 53,39</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 297,67</t>
+          <t>0,0; 385,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 190,01</t>
+          <t>0,0; 371,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 94,8</t>
+          <t>0,0; 103,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,91</t>
+          <t>0,0; 114,4</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,04</t>
+          <t>0,0; 14,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,95</t>
+          <t>0,0; 14,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,11</t>
+          <t>0,0; 10,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,33</t>
+          <t>0,0; 17,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,2</t>
+          <t>0,0; 16,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,24</t>
+          <t>0,0; 12,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,34</t>
+          <t>0,0; 10,36</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,62</t>
+          <t>0,0; 7,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 3,77</t>
+          <t>-10,22; 3,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,69</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,93</t>
+          <t>-3,68; 2,02</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,64</t>
+          <t>0,0; 8,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 3,9</t>
+          <t>-10,43; 3,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,93</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,96</t>
+          <t>-3,95; 2,02</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,21</t>
+          <t>0,0; 7,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,38</t>
+          <t>0,0; 11,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,0</t>
+          <t>0,0; 11,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,86</t>
+          <t>0,66; 6,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,24</t>
+          <t>0,65; 6,98</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,1</t>
+          <t>0,0; 9,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,95</t>
+          <t>0,0; 8,66</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,85</t>
+          <t>0,0; 12,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,36</t>
+          <t>0,0; 12,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,67; 8,54</t>
+          <t>0,66; 7,35</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,8</t>
+          <t>0,66; 7,5</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,05</t>
+          <t>0,44; 4,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,43</t>
+          <t>0,44; 4,32</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,05</t>
+          <t>1,22; 7,32</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,25</t>
+          <t>-0,52; 5,86</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,45</t>
+          <t>1,09; 4,3</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,93</t>
+          <t>0,18; 3,88</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,23</t>
+          <t>0,44; 4,28</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,63</t>
+          <t>0,44; 4,51</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,76</t>
+          <t>1,24; 7,89</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,73</t>
+          <t>-0,48; 6,29</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,66</t>
+          <t>1,11; 4,49</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,1</t>
+          <t>0,17; 4,03</t>
         </is>
       </c>
     </row>
